--- a/resource/指标名称中英文对照表.xlsx
+++ b/resource/指标名称中英文对照表.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8850"/>
+    <workbookView windowWidth="19095" windowHeight="8850" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全局" sheetId="3" r:id="rId1"/>
+    <sheet name="数据值" sheetId="1" r:id="rId2"/>
+    <sheet name="原始值" sheetId="2" r:id="rId3"/>
+    <sheet name="入库值" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
   <si>
     <t>序号</t>
   </si>
@@ -28,6 +31,27 @@
     <t>注解</t>
   </si>
   <si>
+    <t>全局</t>
+  </si>
+  <si>
+    <t>原有原料总量</t>
+  </si>
+  <si>
+    <t>g_r_m_t</t>
+  </si>
+  <si>
+    <t>global_raw_material_total</t>
+  </si>
+  <si>
+    <t>导入原料总量</t>
+  </si>
+  <si>
+    <t>g_e_m_t</t>
+  </si>
+  <si>
+    <t>global_entry_material_total</t>
+  </si>
+  <si>
     <t>20℃密度</t>
   </si>
   <si>
@@ -73,6 +97,9 @@
     <t>iron_level</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>锰含量</t>
   </si>
   <si>
@@ -335,6 +362,438 @@
   </si>
   <si>
     <t>chlorine_level</t>
+  </si>
+  <si>
+    <t>R_d_20_t</t>
+  </si>
+  <si>
+    <t>raw_density_20_temperature</t>
+  </si>
+  <si>
+    <t>R_r_o_n</t>
+  </si>
+  <si>
+    <t>raw_research_octane_number</t>
+  </si>
+  <si>
+    <t>R_h_r_m</t>
+  </si>
+  <si>
+    <t>raw_half_ron_mon</t>
+  </si>
+  <si>
+    <t>R_l_l</t>
+  </si>
+  <si>
+    <t>raw_lead_level</t>
+  </si>
+  <si>
+    <t>R_i_l</t>
+  </si>
+  <si>
+    <t>raw_iron_level</t>
+  </si>
+  <si>
+    <t>R_m_l</t>
+  </si>
+  <si>
+    <t>raw_manganese_level</t>
+  </si>
+  <si>
+    <t>R_d_r_10_e_t</t>
+  </si>
+  <si>
+    <t>raw_distillation_range_10_evaporating_temperature</t>
+  </si>
+  <si>
+    <t>R_d_r_50_e_t</t>
+  </si>
+  <si>
+    <t>raw_distillation_range_50_evaporating_temperature</t>
+  </si>
+  <si>
+    <t>R_d_r_90_e_t</t>
+  </si>
+  <si>
+    <t>raw_distillation_range_90_evaporating_temperature</t>
+  </si>
+  <si>
+    <t>R_f_b_p</t>
+  </si>
+  <si>
+    <t>raw_final_boiling_point</t>
+  </si>
+  <si>
+    <t>R_r_l</t>
+  </si>
+  <si>
+    <t>raw_residue_level</t>
+  </si>
+  <si>
+    <t>R_v_p</t>
+  </si>
+  <si>
+    <t>raw_vapour_pressure</t>
+  </si>
+  <si>
+    <t>R_s_w_g</t>
+  </si>
+  <si>
+    <t>raw_solvent_wash_gum</t>
+  </si>
+  <si>
+    <t>R_u_g</t>
+  </si>
+  <si>
+    <t>raw_unwashed_gum</t>
+  </si>
+  <si>
+    <t>R_o_s</t>
+  </si>
+  <si>
+    <t>raw_oxidation_stability</t>
+  </si>
+  <si>
+    <t>R_s_l</t>
+  </si>
+  <si>
+    <t>raw_sulfur_level</t>
+  </si>
+  <si>
+    <t>R_d_t</t>
+  </si>
+  <si>
+    <t>raw_doctor_test</t>
+  </si>
+  <si>
+    <t>R_m_s_l</t>
+  </si>
+  <si>
+    <t>raw_mercaptan_sulfur_level</t>
+  </si>
+  <si>
+    <t>R_c_c_3_h_50_t</t>
+  </si>
+  <si>
+    <t>raw_copper_corrosion_3_hour_50_temperature</t>
+  </si>
+  <si>
+    <t>R_w_s_ph</t>
+  </si>
+  <si>
+    <t>raw_water_solubility_ph</t>
+  </si>
+  <si>
+    <t>R_m_i_w</t>
+  </si>
+  <si>
+    <t>raw_mechanical_impurities_and_water</t>
+  </si>
+  <si>
+    <t>R_b_l</t>
+  </si>
+  <si>
+    <t>raw_benzene_level</t>
+  </si>
+  <si>
+    <t>R_a_l</t>
+  </si>
+  <si>
+    <t>raw_arene_level</t>
+  </si>
+  <si>
+    <t>R_t_a</t>
+  </si>
+  <si>
+    <t>raw_total_alkene</t>
+  </si>
+  <si>
+    <t>R_a_a</t>
+  </si>
+  <si>
+    <t>raw_arene_and_alkene</t>
+  </si>
+  <si>
+    <t>R_o_l</t>
+  </si>
+  <si>
+    <t>raw_oxygen_level</t>
+  </si>
+  <si>
+    <t>R_carbinol</t>
+  </si>
+  <si>
+    <t>raw_carbinol</t>
+  </si>
+  <si>
+    <t>R_d_v</t>
+  </si>
+  <si>
+    <t>raw_diene_value</t>
+  </si>
+  <si>
+    <t>R_d_p_i</t>
+  </si>
+  <si>
+    <t>raw_driving_performance_index</t>
+  </si>
+  <si>
+    <t>R_ethanol</t>
+  </si>
+  <si>
+    <t>raw_ethanol</t>
+  </si>
+  <si>
+    <t>R_silicon</t>
+  </si>
+  <si>
+    <t>raw_silicon</t>
+  </si>
+  <si>
+    <t>R_methylaniline</t>
+  </si>
+  <si>
+    <t>raw_methylaniline</t>
+  </si>
+  <si>
+    <t>R_formal</t>
+  </si>
+  <si>
+    <t>raw_formal</t>
+  </si>
+  <si>
+    <t>R_d_s</t>
+  </si>
+  <si>
+    <t>raw_dimethyl_sulfate</t>
+  </si>
+  <si>
+    <t>R_s_b_a</t>
+  </si>
+  <si>
+    <t>raw_secondary_butyl_acetate</t>
+  </si>
+  <si>
+    <t>R_c_l</t>
+  </si>
+  <si>
+    <t>raw_chlorine_level</t>
+  </si>
+  <si>
+    <t>E_d_20_t</t>
+  </si>
+  <si>
+    <t>entry_density_20_temperature</t>
+  </si>
+  <si>
+    <t>E_r_o_n</t>
+  </si>
+  <si>
+    <t>entry_research_octane_number</t>
+  </si>
+  <si>
+    <t>E_h_r_m</t>
+  </si>
+  <si>
+    <t>entry_half_ron_mon</t>
+  </si>
+  <si>
+    <t>E_l_l</t>
+  </si>
+  <si>
+    <t>entry_lead_level</t>
+  </si>
+  <si>
+    <t>E_i_l</t>
+  </si>
+  <si>
+    <t>entry_iron_level</t>
+  </si>
+  <si>
+    <t>E_m_l</t>
+  </si>
+  <si>
+    <t>entry_manganese_level</t>
+  </si>
+  <si>
+    <t>E_d_r_10_e_t</t>
+  </si>
+  <si>
+    <t>entry_distillation_range_10_evaporating_temperature</t>
+  </si>
+  <si>
+    <t>E_d_r_50_e_t</t>
+  </si>
+  <si>
+    <t>entry_distillation_range_50_evaporating_temperature</t>
+  </si>
+  <si>
+    <t>E_d_r_90_e_t</t>
+  </si>
+  <si>
+    <t>entry_distillation_range_90_evaporating_temperature</t>
+  </si>
+  <si>
+    <t>E_f_b_p</t>
+  </si>
+  <si>
+    <t>entry_final_boiling_point</t>
+  </si>
+  <si>
+    <t>E_r_l</t>
+  </si>
+  <si>
+    <t>entry_residue_level</t>
+  </si>
+  <si>
+    <t>E_v_p</t>
+  </si>
+  <si>
+    <t>entry_vapour_pressure</t>
+  </si>
+  <si>
+    <t>E_s_w_g</t>
+  </si>
+  <si>
+    <t>entry_solvent_wash_gum</t>
+  </si>
+  <si>
+    <t>E_u_g</t>
+  </si>
+  <si>
+    <t>entry_unwashed_gum</t>
+  </si>
+  <si>
+    <t>E_o_s</t>
+  </si>
+  <si>
+    <t>entry_oxidation_stability</t>
+  </si>
+  <si>
+    <t>E_s_l</t>
+  </si>
+  <si>
+    <t>entry_sulfur_level</t>
+  </si>
+  <si>
+    <t>E_d_t</t>
+  </si>
+  <si>
+    <t>entry_doctor_test</t>
+  </si>
+  <si>
+    <t>E_m_s_l</t>
+  </si>
+  <si>
+    <t>entry_mercaptan_sulfur_level</t>
+  </si>
+  <si>
+    <t>E_c_c_3_h_50_t</t>
+  </si>
+  <si>
+    <t>entry_copper_corrosion_3_hour_50_temperature</t>
+  </si>
+  <si>
+    <t>E_w_s_ph</t>
+  </si>
+  <si>
+    <t>entry_water_solubility_ph</t>
+  </si>
+  <si>
+    <t>E_m_i_w</t>
+  </si>
+  <si>
+    <t>entry_mechanical_impurities_and_water</t>
+  </si>
+  <si>
+    <t>E_b_l</t>
+  </si>
+  <si>
+    <t>entry_benzene_level</t>
+  </si>
+  <si>
+    <t>E_a_l</t>
+  </si>
+  <si>
+    <t>entry_arene_level</t>
+  </si>
+  <si>
+    <t>E_t_a</t>
+  </si>
+  <si>
+    <t>entry_total_alkene</t>
+  </si>
+  <si>
+    <t>E_a_a</t>
+  </si>
+  <si>
+    <t>entry_arene_and_alkene</t>
+  </si>
+  <si>
+    <t>E_o_l</t>
+  </si>
+  <si>
+    <t>entry_oxygen_level</t>
+  </si>
+  <si>
+    <t>E_carbinol</t>
+  </si>
+  <si>
+    <t>entry_carbinol</t>
+  </si>
+  <si>
+    <t>E_d_v</t>
+  </si>
+  <si>
+    <t>entry_diene_value</t>
+  </si>
+  <si>
+    <t>E_d_p_i</t>
+  </si>
+  <si>
+    <t>entry_driving_performance_index</t>
+  </si>
+  <si>
+    <t>E_ethanol</t>
+  </si>
+  <si>
+    <t>entry_ethanol</t>
+  </si>
+  <si>
+    <t>E_silicon</t>
+  </si>
+  <si>
+    <t>entry_silicon</t>
+  </si>
+  <si>
+    <t>E_methylaniline</t>
+  </si>
+  <si>
+    <t>entry_methylaniline</t>
+  </si>
+  <si>
+    <t>E_formal</t>
+  </si>
+  <si>
+    <t>entry_formal</t>
+  </si>
+  <si>
+    <t>E_d_s</t>
+  </si>
+  <si>
+    <t>entry_dimethyl_sulfate</t>
+  </si>
+  <si>
+    <t>E_s_b_a</t>
+  </si>
+  <si>
+    <t>entry_secondary_butyl_acetate</t>
+  </si>
+  <si>
+    <t>E_c_l</t>
+  </si>
+  <si>
+    <t>entry_chlorine_level</t>
   </si>
 </sst>
 </file>
@@ -342,8 +801,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -365,30 +824,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,35 +853,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -446,17 +890,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,15 +951,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,25 +961,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,13 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,19 +1000,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,25 +1114,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,109 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,17 +1176,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,28 +1227,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,11 +1248,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +1281,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,133 +1293,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1296,18 +1755,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="16384" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="54.125" customWidth="1"/>
-    <col min="4" max="4" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="30.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="55.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -1329,13 +1854,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1343,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1357,13 +1882,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -1371,27 +1896,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1399,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
@@ -1413,13 +1941,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
@@ -1427,13 +1955,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
@@ -1441,13 +1969,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
@@ -1455,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
@@ -1469,13 +1997,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
@@ -1483,13 +2011,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
@@ -1497,13 +2025,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
@@ -1511,13 +2039,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
@@ -1525,13 +2053,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
@@ -1539,13 +2067,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
@@ -1553,13 +2081,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
@@ -1567,13 +2095,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
@@ -1581,13 +2109,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
@@ -1595,13 +2123,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
@@ -1609,13 +2137,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
@@ -1623,13 +2151,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
@@ -1637,13 +2165,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
@@ -1651,13 +2179,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
@@ -1665,13 +2193,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
@@ -1679,13 +2207,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
@@ -1693,13 +2221,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
@@ -1707,13 +2235,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
@@ -1721,13 +2249,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
@@ -1735,13 +2263,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -1749,13 +2277,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -1763,13 +2291,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -1777,13 +2305,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
@@ -1791,13 +2319,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -1805,13 +2333,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -1819,13 +2347,1101 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="30.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="55.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>104</v>
       </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="30.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="55.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
